--- a/teaching/traditional_assets/database/data/france/france_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/france/france_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08840000000000001</v>
+        <v>0.0151</v>
       </c>
       <c r="E2">
-        <v>-0.003149999999999993</v>
+        <v>-0.001500000000000008</v>
       </c>
       <c r="F2">
-        <v>0.03305</v>
+        <v>0.1227</v>
       </c>
       <c r="G2">
-        <v>0.2404468971367437</v>
+        <v>0.2555159003603818</v>
       </c>
       <c r="H2">
-        <v>0.2404468971367437</v>
+        <v>0.2555159003603818</v>
       </c>
       <c r="I2">
-        <v>0.274828920420616</v>
+        <v>0.2334322622425298</v>
       </c>
       <c r="J2">
-        <v>0.2532649373574525</v>
+        <v>0.2132249429454518</v>
       </c>
       <c r="K2">
-        <v>1408.893</v>
+        <v>991.4109999999999</v>
       </c>
       <c r="L2">
-        <v>0.2229726778377762</v>
+        <v>0.1570489881588848</v>
       </c>
       <c r="M2">
-        <v>118.4828</v>
+        <v>192.5518</v>
       </c>
       <c r="N2">
-        <v>0.005604331618363875</v>
+        <v>0.008275561813205703</v>
       </c>
       <c r="O2">
-        <v>0.08409637921403541</v>
+        <v>0.1942199551951713</v>
       </c>
       <c r="P2">
-        <v>118.0078</v>
+        <v>191.3808</v>
       </c>
       <c r="Q2">
-        <v>0.005581863736791842</v>
+        <v>0.008225234146140199</v>
       </c>
       <c r="R2">
-        <v>0.0837592350874055</v>
+        <v>0.1930388103420277</v>
       </c>
       <c r="S2">
-        <v>0.4750000000000032</v>
+        <v>1.170999999999999</v>
       </c>
       <c r="T2">
-        <v>0.004009020718619101</v>
+        <v>0.00608148041202419</v>
       </c>
       <c r="U2">
-        <v>1385.435</v>
+        <v>1089.378</v>
       </c>
       <c r="V2">
-        <v>0.06553218843315615</v>
+        <v>0.04681968684243099</v>
       </c>
       <c r="W2">
-        <v>0.03777563177322417</v>
+        <v>-0.002874616421463191</v>
       </c>
       <c r="X2">
-        <v>0.05613439614788925</v>
+        <v>0.03864202239571592</v>
       </c>
       <c r="Y2">
-        <v>-0.01835876437466508</v>
+        <v>-0.04151663881717911</v>
       </c>
       <c r="Z2">
-        <v>0.300596227982012</v>
+        <v>0.2587135956971081</v>
       </c>
       <c r="AA2">
-        <v>0.05329591695434541</v>
+        <v>-0.02878885027378386</v>
       </c>
       <c r="AB2">
-        <v>0.05026137815241591</v>
+        <v>0.03788141224209426</v>
       </c>
       <c r="AC2">
-        <v>0.003113429078309891</v>
+        <v>-0.06657028134273475</v>
       </c>
       <c r="AD2">
-        <v>11210.83</v>
+        <v>17852.84</v>
       </c>
       <c r="AE2">
-        <v>245.9699855833089</v>
+        <v>0.1574326423505239</v>
       </c>
       <c r="AF2">
-        <v>11456.79998558331</v>
+        <v>17852.99743264235</v>
       </c>
       <c r="AG2">
-        <v>10071.36498558331</v>
+        <v>16763.61943264235</v>
       </c>
       <c r="AH2">
-        <v>0.3514561739859649</v>
+        <v>0.4341627622241508</v>
       </c>
       <c r="AI2">
-        <v>0.4368177816910323</v>
+        <v>0.5196531165094722</v>
       </c>
       <c r="AJ2">
-        <v>0.3226692823867477</v>
+        <v>0.4187644836053029</v>
       </c>
       <c r="AK2">
-        <v>0.4054097350532657</v>
+        <v>0.5039230693226463</v>
       </c>
       <c r="AL2">
-        <v>57.434</v>
+        <v>153.589</v>
       </c>
       <c r="AM2">
-        <v>51.976</v>
+        <v>135.179</v>
       </c>
       <c r="AN2">
-        <v>7.591072584511295</v>
+        <v>11.05797794454671</v>
       </c>
       <c r="AO2">
-        <v>29.87857366716579</v>
+        <v>9.594228753361243</v>
       </c>
       <c r="AP2">
-        <v>6.819518504041937</v>
+        <v>10.38331906615047</v>
       </c>
       <c r="AQ2">
-        <v>33.01612282591966</v>
+        <v>10.90086477929264</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Union Financière de France Banque SA (ENXTPA:UFF)</t>
+          <t>Financière Marjos SA (ENXTPA:FINM)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,122 +727,86 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.07780000000000001</v>
-      </c>
-      <c r="E3">
-        <v>0.325</v>
-      </c>
-      <c r="G3">
-        <v>0.1394230769230769</v>
-      </c>
-      <c r="H3">
-        <v>0.1394230769230769</v>
-      </c>
-      <c r="I3">
-        <v>0.1287774725274725</v>
-      </c>
-      <c r="J3">
-        <v>0.1125343925334484</v>
-      </c>
       <c r="K3">
-        <v>115.7</v>
-      </c>
-      <c r="L3">
-        <v>0.3973214285714286</v>
+        <v>-0.273</v>
       </c>
       <c r="M3">
-        <v>35.939</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1001923613047115</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.3106222990492654</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>35.8</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.09980485085029273</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>0.3094209161624892</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1390000000000029</v>
-      </c>
-      <c r="T3">
-        <v>0.003867664653997131</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>82.7</v>
+        <v>0.261</v>
       </c>
       <c r="V3">
-        <v>0.2305547811541678</v>
+        <v>0.04176</v>
       </c>
       <c r="W3">
-        <v>0.9974137931034484</v>
+        <v>0.1654545454545455</v>
       </c>
       <c r="X3">
-        <v>0.05142999846610254</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y3">
-        <v>0.9459837946373458</v>
+        <v>0.1275674993644203</v>
       </c>
       <c r="Z3">
-        <v>4.885906040268456</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.5498324682171171</v>
+        <v>0.4380952380952382</v>
       </c>
       <c r="AB3">
-        <v>0.0501647063107303</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC3">
-        <v>0.4996677619063868</v>
+        <v>0.400208192005113</v>
       </c>
       <c r="AD3">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>-66.40000000000001</v>
+        <v>-0.261</v>
       </c>
       <c r="AH3">
-        <v>0.04346666666666667</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.07851637764932562</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.227163872733493</v>
+        <v>-0.04357989647687427</v>
       </c>
       <c r="AK3">
-        <v>-0.5316253002401922</v>
+        <v>1.601226993865031</v>
       </c>
       <c r="AL3">
-        <v>0.214</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.214</v>
-      </c>
-      <c r="AN3">
-        <v>0.3899521531100479</v>
-      </c>
-      <c r="AO3">
-        <v>175.2336448598131</v>
-      </c>
-      <c r="AP3">
-        <v>-1.588516746411484</v>
-      </c>
-      <c r="AQ3">
-        <v>175.2336448598131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -853,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Financière Marjos SA (ENXTPA:FINM)</t>
+          <t>Altamir SCA (ENXTPA:LTA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -861,86 +825,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.164</v>
+      </c>
+      <c r="E4">
+        <v>0.166</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0.8716600963644328</v>
+      </c>
+      <c r="J4">
+        <v>0.8716600963644328</v>
+      </c>
       <c r="K4">
-        <v>-0.487</v>
+        <v>151.6</v>
+      </c>
+      <c r="L4">
+        <v>0.6640385457731055</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>44.6</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.05009547343592048</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.2941952506596306</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>44.6</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.05009547343592048</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.2941952506596306</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>0</v>
+        <v>81.2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.09120521172638438</v>
       </c>
       <c r="W4">
-        <v>0.4092436974789916</v>
+        <v>0.1487295202590013</v>
       </c>
       <c r="X4">
-        <v>0.07516235311592269</v>
+        <v>0.04051565435826174</v>
       </c>
       <c r="Y4">
-        <v>0.3340813443630689</v>
+        <v>0.1082138659007395</v>
       </c>
       <c r="Z4">
-        <v>-0</v>
+        <v>0.2298602916597866</v>
       </c>
       <c r="AA4">
-        <v>0.3962962962962964</v>
+        <v>0.2003600439785262</v>
       </c>
       <c r="AB4">
-        <v>0.07586896385572316</v>
+        <v>0.03785043874017593</v>
       </c>
       <c r="AC4">
-        <v>0.3204273324405733</v>
+        <v>0.1625096052383503</v>
       </c>
       <c r="AD4">
-        <v>1.02</v>
+        <v>113.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.02</v>
+        <v>113.7</v>
       </c>
       <c r="AG4">
-        <v>1.02</v>
+        <v>32.5</v>
       </c>
       <c r="AH4">
-        <v>0.5340314136125655</v>
+        <v>0.1132470119521912</v>
       </c>
       <c r="AI4">
-        <v>-1.619047619047619</v>
+        <v>0.09128131021194605</v>
       </c>
       <c r="AJ4">
-        <v>0.5340314136125655</v>
+        <v>0.03521889900303424</v>
       </c>
       <c r="AK4">
-        <v>-1.619047619047619</v>
+        <v>0.0279113706630024</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>7.799999999999999</v>
+      </c>
+      <c r="AO4">
+        <v>9.52153110047847</v>
+      </c>
+      <c r="AQ4">
+        <v>25.51282051282051</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +945,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Altamir SCA (ENXTPA:LTA)</t>
+          <t>Union Financière de France Banque SA (ENXTPA:UFF)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,115 +954,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.101</v>
+        <v>-0.00173</v>
       </c>
       <c r="E5">
-        <v>0.09210000000000002</v>
+        <v>-0.2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1744548286604361</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1744548286604361</v>
       </c>
       <c r="I5">
-        <v>0.8887096774193549</v>
+        <v>0.06386292834890965</v>
       </c>
       <c r="J5">
-        <v>0.8887096774193549</v>
+        <v>0.03606594277276574</v>
       </c>
       <c r="K5">
-        <v>169.8</v>
+        <v>9.73</v>
       </c>
       <c r="L5">
-        <v>0.6846774193548387</v>
+        <v>0.03788940809968847</v>
       </c>
       <c r="M5">
-        <v>27.4115</v>
+        <v>12.711</v>
       </c>
       <c r="N5">
-        <v>0.04021050315388</v>
+        <v>0.0332661606909186</v>
       </c>
       <c r="O5">
-        <v>0.1614340400471142</v>
+        <v>1.306372045220966</v>
       </c>
       <c r="P5">
-        <v>27.4115</v>
+        <v>12.7</v>
       </c>
       <c r="Q5">
-        <v>0.04021050315388</v>
+        <v>0.03323737241559801</v>
       </c>
       <c r="R5">
-        <v>0.1614340400471142</v>
+        <v>1.305241521068859</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01099999999999923</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0008653921800015131</v>
       </c>
       <c r="U5">
-        <v>192.8</v>
+        <v>129.9</v>
       </c>
       <c r="V5">
-        <v>0.2828223558750184</v>
+        <v>0.3399633603768647</v>
       </c>
       <c r="W5">
-        <v>0.1888345195729537</v>
+        <v>0.05086251960271825</v>
       </c>
       <c r="X5">
-        <v>0.05571665444962189</v>
+        <v>0.03863041403032794</v>
       </c>
       <c r="Y5">
-        <v>0.1331178651233318</v>
+        <v>0.01223210557239031</v>
       </c>
       <c r="Z5">
-        <v>0.2406512332890522</v>
+        <v>2.056044835868695</v>
       </c>
       <c r="AA5">
-        <v>0.2138690799068835</v>
+        <v>0.07415319538868086</v>
       </c>
       <c r="AB5">
-        <v>0.04997373180017683</v>
+        <v>0.03787577839406337</v>
       </c>
       <c r="AC5">
-        <v>0.1638953481067067</v>
+        <v>0.03627741699461749</v>
       </c>
       <c r="AD5">
-        <v>166.5</v>
+        <v>13.8</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>166.5</v>
+        <v>13.8</v>
       </c>
       <c r="AG5">
-        <v>-26.30000000000001</v>
+        <v>-116.1</v>
       </c>
       <c r="AH5">
-        <v>0.196298042914407</v>
+        <v>0.03485728719373579</v>
       </c>
       <c r="AI5">
-        <v>0.1403878583473862</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="AJ5">
-        <v>-0.04012816600549284</v>
+        <v>-0.4364661654135339</v>
       </c>
       <c r="AK5">
-        <v>-0.02648006443817963</v>
+        <v>-1.653846153846154</v>
       </c>
       <c r="AL5">
-        <v>2.11</v>
+        <v>0.304</v>
       </c>
       <c r="AM5">
-        <v>2.11</v>
+        <v>0.304</v>
+      </c>
+      <c r="AN5">
+        <v>0.592274678111588</v>
       </c>
       <c r="AO5">
-        <v>104.4549763033176</v>
+        <v>53.94736842105263</v>
+      </c>
+      <c r="AP5">
+        <v>-4.982832618025752</v>
       </c>
       <c r="AQ5">
-        <v>104.4549763033176</v>
+        <v>53.94736842105263</v>
       </c>
     </row>
     <row r="6">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IDI (ENXTPA:IDIP)</t>
+          <t>Amundi SA (ENXTPA:AMUN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1088,121 +1088,121 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.154</v>
+        <v>0.118</v>
       </c>
       <c r="E6">
-        <v>0.177</v>
+        <v>0.116</v>
+      </c>
+      <c r="F6">
+        <v>0.0454</v>
       </c>
       <c r="G6">
-        <v>0.9859943977591037</v>
+        <v>0.2699144874569776</v>
       </c>
       <c r="H6">
-        <v>0.9859943977591037</v>
+        <v>0.2699144874569776</v>
       </c>
       <c r="I6">
-        <v>0.7871148459383753</v>
+        <v>0.2590923606429408</v>
       </c>
       <c r="J6">
-        <v>0.7871148459383753</v>
+        <v>0.1911414485651524</v>
       </c>
       <c r="K6">
-        <v>55.9</v>
+        <v>1052.5</v>
       </c>
       <c r="L6">
-        <v>0.7829131652661063</v>
+        <v>0.1867260405208814</v>
       </c>
       <c r="M6">
-        <v>15.8448</v>
+        <v>-0</v>
       </c>
       <c r="N6">
-        <v>0.04427158424140822</v>
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>0.2834490161001789</v>
+        <v>-0</v>
       </c>
       <c r="P6">
-        <v>15.5088</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.0433327745180218</v>
+        <v>-0</v>
       </c>
       <c r="R6">
-        <v>0.277438282647585</v>
+        <v>-0</v>
       </c>
       <c r="S6">
-        <v>0.3360000000000003</v>
-      </c>
-      <c r="T6">
-        <v>0.02120569524386551</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>50.3</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.1405420508521933</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.1077694235588972</v>
+        <v>0.1156250343304734</v>
       </c>
       <c r="X6">
-        <v>0.06000541806586683</v>
+        <v>0.05813571899906894</v>
       </c>
       <c r="Y6">
-        <v>0.04776400549303041</v>
+        <v>0.05748931533140443</v>
       </c>
       <c r="Z6">
-        <v>0.1065353625783348</v>
+        <v>0.2988922649443481</v>
       </c>
       <c r="AA6">
-        <v>0.08385556550283498</v>
+        <v>0.05713070048638202</v>
       </c>
       <c r="AB6">
-        <v>0.04843363605247054</v>
+        <v>0.03772674207273044</v>
       </c>
       <c r="AC6">
-        <v>0.03542192945036443</v>
+        <v>0.01940395841365158</v>
       </c>
       <c r="AD6">
-        <v>158.6</v>
+        <v>16186.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>158.6</v>
+        <v>16186.8</v>
       </c>
       <c r="AG6">
-        <v>108.3</v>
+        <v>16186.8</v>
       </c>
       <c r="AH6">
-        <v>0.3070667957405614</v>
+        <v>0.4959100016543814</v>
       </c>
       <c r="AI6">
-        <v>0.2246140773261578</v>
+        <v>0.5984206556940687</v>
       </c>
       <c r="AJ6">
-        <v>0.2323037323037323</v>
+        <v>0.4959100016543814</v>
       </c>
       <c r="AK6">
-        <v>0.1651418115279049</v>
+        <v>0.5984206556940687</v>
       </c>
       <c r="AL6">
-        <v>3.33</v>
+        <v>89.3</v>
       </c>
       <c r="AM6">
-        <v>3.33</v>
+        <v>89.3</v>
       </c>
       <c r="AN6">
-        <v>2.807079646017699</v>
+        <v>10.13829387448328</v>
       </c>
       <c r="AO6">
-        <v>16.87687687687688</v>
+        <v>16.3538633818589</v>
       </c>
       <c r="AP6">
-        <v>1.916814159292035</v>
+        <v>10.13829387448328</v>
       </c>
       <c r="AQ6">
-        <v>16.87687687687688</v>
+        <v>16.3538633818589</v>
       </c>
     </row>
     <row r="7">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Amundi (ENXTPA:AMUN)</t>
+          <t>Societe de Tayninh SA (ENXTPA:TAYN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1221,26 +1221,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="F7">
-        <v>0.0561</v>
-      </c>
-      <c r="G7">
-        <v>0.2625216539880997</v>
-      </c>
-      <c r="H7">
-        <v>0.2625216539880997</v>
-      </c>
-      <c r="I7">
-        <v>0.244315035382232</v>
-      </c>
-      <c r="J7">
-        <v>0.1833166619899816</v>
-      </c>
       <c r="K7">
-        <v>969.4</v>
-      </c>
-      <c r="L7">
-        <v>0.1825337049032161</v>
+        <v>-0.091</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1249,7 +1231,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1258,7 +1240,7 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1270,67 +1252,58 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0.1024378388088722</v>
+        <v>-0.004619289340101523</v>
       </c>
       <c r="X7">
-        <v>0.06412968602744237</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y7">
-        <v>0.03830815278142981</v>
+        <v>-0.04250633543022667</v>
       </c>
       <c r="Z7">
-        <v>0.3268897023622149</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.05992432907593986</v>
+        <v>-0.005076142131979696</v>
       </c>
       <c r="AB7">
-        <v>0.04790110483770601</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC7">
-        <v>0.01202322423823385</v>
+        <v>-0.04296318822210485</v>
       </c>
       <c r="AD7">
-        <v>9755.6</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>209.4585504602106</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>9965.058550460211</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>9965.058550460211</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>0.3881584188436759</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.5226130026814138</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0.3881584188436759</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>0.5226130026814138</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>17.2</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>17.2</v>
-      </c>
-      <c r="AN7">
-        <v>7.102730251183109</v>
-      </c>
-      <c r="AO7">
-        <v>74.11627906976744</v>
-      </c>
-      <c r="AP7">
-        <v>7.255230105904777</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="AQ7">
-        <v>74.11627906976744</v>
+        <v>11.11111111111111</v>
       </c>
     </row>
     <row r="8">
@@ -1341,7 +1314,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NextStage - S.C.A. (ENXTPA:NEXTS)</t>
+          <t>IDI (ENXTPA:IDIP)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1349,98 +1322,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D8">
+        <v>-0.395</v>
+      </c>
       <c r="G8">
-        <v>0</v>
+        <v>7.862595419847328</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.862595419847328</v>
       </c>
       <c r="I8">
-        <v>0.6389705882352941</v>
+        <v>-1.946564885496183</v>
       </c>
       <c r="J8">
-        <v>0.6389705882352941</v>
+        <v>-1.946564885496183</v>
       </c>
       <c r="K8">
-        <v>8.210000000000001</v>
+        <v>-8.6</v>
       </c>
       <c r="L8">
-        <v>0.6036764705882354</v>
+        <v>-1.641221374045801</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>15.16</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.04086253369272237</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>-1.762790697674419</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>14</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>-1.627906976744186</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1.16</v>
+      </c>
+      <c r="T8">
+        <v>0.07651715039577837</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.08921832884097035</v>
       </c>
       <c r="W8">
-        <v>0.0318958818958819</v>
+        <v>-0.01570776255707762</v>
       </c>
       <c r="X8">
-        <v>0.05045015326463245</v>
+        <v>0.04588710396953527</v>
       </c>
       <c r="Y8">
-        <v>-0.01855427136875055</v>
+        <v>-0.06159486652661289</v>
       </c>
       <c r="Z8">
-        <v>0.08802588996763755</v>
+        <v>0.007990240927111925</v>
       </c>
       <c r="AA8">
-        <v>0.05624595469255664</v>
+        <v>-0.01555352241537054</v>
       </c>
       <c r="AB8">
-        <v>0.05045015326463245</v>
+        <v>0.03779657059987264</v>
       </c>
       <c r="AC8">
-        <v>0.005795801427924192</v>
+        <v>-0.05335009301524318</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>144.2</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>144.2</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>111.1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>0.2798913043478261</v>
+      </c>
+      <c r="AI8">
+        <v>0.2170052671181339</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>0.2304501140842149</v>
+      </c>
+      <c r="AK8">
+        <v>0.1759581881533101</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AM8">
-        <v>-0.72</v>
+        <v>1.61</v>
+      </c>
+      <c r="AN8">
+        <v>-14.8813209494324</v>
+      </c>
+      <c r="AO8">
+        <v>-6.335403726708074</v>
+      </c>
+      <c r="AP8">
+        <v>-11.46542827657379</v>
       </c>
       <c r="AQ8">
-        <v>-12.06944444444444</v>
+        <v>-6.335403726708074</v>
       </c>
     </row>
     <row r="9">
@@ -1451,7 +1445,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Tikehau Capital (ENXTPA:TKO)</t>
+          <t>Compagnie Lebon (ENXTPA:LBON)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1459,44 +1453,44 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="F9">
-        <v>0.01</v>
+      <c r="D9">
+        <v>0.0159</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0760643330179754</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0760643330179754</v>
       </c>
       <c r="I9">
-        <v>0.3860966057441254</v>
+        <v>-0.05175023651844844</v>
       </c>
       <c r="J9">
-        <v>0.3853004313770008</v>
+        <v>-0.05175023651844844</v>
       </c>
       <c r="K9">
-        <v>81</v>
+        <v>-13.5</v>
       </c>
       <c r="L9">
-        <v>0.2643603133159269</v>
+        <v>-0.1277199621570483</v>
       </c>
       <c r="M9">
-        <v>29.6</v>
+        <v>9.06</v>
       </c>
       <c r="N9">
-        <v>0.008781298208140501</v>
+        <v>0.08357933579335794</v>
       </c>
       <c r="O9">
-        <v>0.3654320987654321</v>
+        <v>-0.6711111111111111</v>
       </c>
       <c r="P9">
-        <v>29.6</v>
+        <v>9.06</v>
       </c>
       <c r="Q9">
-        <v>0.008781298208140501</v>
+        <v>0.08357933579335794</v>
       </c>
       <c r="R9">
-        <v>0.3654320987654321</v>
+        <v>-0.6711111111111111</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1505,67 +1499,73 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1013.5</v>
+        <v>36.5</v>
       </c>
       <c r="V9">
-        <v>0.3006704639848107</v>
+        <v>0.3367158671586716</v>
       </c>
       <c r="W9">
-        <v>0.03028263795423957</v>
+        <v>-0.07161803713527852</v>
       </c>
       <c r="X9">
-        <v>0.05655213784615662</v>
+        <v>0.0766979169295305</v>
       </c>
       <c r="Y9">
-        <v>-0.02626949989191705</v>
+        <v>-0.148315954064809</v>
       </c>
       <c r="Z9">
-        <v>0.1306665529446885</v>
+        <v>0.3600136239782016</v>
       </c>
       <c r="AA9">
-        <v>0.05034587921613418</v>
+        <v>-0.01863079019073569</v>
       </c>
       <c r="AB9">
-        <v>0.04991482248743859</v>
+        <v>0.03767581604777663</v>
       </c>
       <c r="AC9">
-        <v>0.0004310567286955891</v>
+        <v>-0.05630660623851232</v>
       </c>
       <c r="AD9">
-        <v>953.9</v>
+        <v>204.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>953.9</v>
+        <v>204.4</v>
       </c>
       <c r="AG9">
-        <v>-59.60000000000002</v>
+        <v>167.9</v>
       </c>
       <c r="AH9">
-        <v>0.2205702129627489</v>
+        <v>0.6534526854219949</v>
       </c>
       <c r="AI9">
-        <v>0.2146972766148998</v>
+        <v>0.5383197260995523</v>
       </c>
       <c r="AJ9">
-        <v>-0.01799951679149554</v>
+        <v>0.6076728193992038</v>
       </c>
       <c r="AK9">
-        <v>-0.01737862662195656</v>
+        <v>0.4892191142191142</v>
       </c>
       <c r="AL9">
-        <v>29.1</v>
+        <v>4.98</v>
       </c>
       <c r="AM9">
-        <v>28.218</v>
+        <v>4.552</v>
+      </c>
+      <c r="AN9">
+        <v>31.01669195751138</v>
       </c>
       <c r="AO9">
-        <v>4.065292096219931</v>
+        <v>-1.098393574297189</v>
+      </c>
+      <c r="AP9">
+        <v>25.47799696509864</v>
       </c>
       <c r="AQ9">
-        <v>4.192359486852363</v>
+        <v>-1.201669595782074</v>
       </c>
     </row>
     <row r="10">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Societe Francaise de Gestion et d'Investissement (ENXTPA:SOFR)</t>
+          <t>NextStage - S.C.A. (ENXTPA:NEXTS)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1584,80 +1584,71 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>-0.186</v>
-      </c>
-      <c r="E10">
-        <v>-0.317</v>
-      </c>
       <c r="G10">
-        <v>0.9785714285714285</v>
+        <v>-0</v>
       </c>
       <c r="H10">
-        <v>0.9785714285714285</v>
+        <v>-0</v>
       </c>
       <c r="I10">
-        <v>0.6628571428571428</v>
+        <v>2.458791208791208</v>
       </c>
       <c r="J10">
-        <v>0.6628571428571428</v>
+        <v>2.458791208791208</v>
       </c>
       <c r="K10">
-        <v>3.51</v>
+        <v>-9.56</v>
       </c>
       <c r="L10">
-        <v>0.2507142857142857</v>
+        <v>2.626373626373626</v>
       </c>
       <c r="M10">
-        <v>5.8608</v>
+        <v>-0</v>
       </c>
       <c r="N10">
-        <v>0.0318694942903752</v>
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>1.66974358974359</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>5.8608</v>
+        <v>-0</v>
       </c>
       <c r="Q10">
-        <v>0.0318694942903752</v>
+        <v>-0</v>
       </c>
       <c r="R10">
-        <v>1.66974358974359</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
       <c r="U10">
-        <v>14.8</v>
+        <v>19.1</v>
       </c>
       <c r="V10">
-        <v>0.08047852093529093</v>
+        <v>0.08358862144420132</v>
       </c>
       <c r="W10">
-        <v>0.01512931034482758</v>
+        <v>-0.03709740007760963</v>
       </c>
       <c r="X10">
-        <v>0.05045015326463245</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y10">
-        <v>-0.03532084291980487</v>
+        <v>-0.07498444616773478</v>
       </c>
       <c r="Z10">
-        <v>0.06551240056153486</v>
+        <v>-0.01583986074847694</v>
       </c>
       <c r="AA10">
-        <v>0.04342536265793168</v>
+        <v>-0.03894691035683203</v>
       </c>
       <c r="AB10">
-        <v>0.05045015326463245</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC10">
-        <v>-0.007024790606700776</v>
+        <v>-0.07683395644695717</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -1669,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>-14.8</v>
+        <v>-19.1</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1678,22 +1669,22 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>-0.08752217622708457</v>
+        <v>-0.09121298949379179</v>
       </c>
       <c r="AK10">
-        <v>-0.07558733401430032</v>
+        <v>-0.07670682730923695</v>
       </c>
       <c r="AL10">
-        <v>0.065</v>
+        <v>0.079</v>
       </c>
       <c r="AM10">
-        <v>0.065</v>
+        <v>-0.259</v>
       </c>
       <c r="AO10">
-        <v>142.7692307692307</v>
+        <v>-113.2911392405063</v>
       </c>
       <c r="AQ10">
-        <v>142.7692307692307</v>
+        <v>34.55598455598455</v>
       </c>
     </row>
     <row r="11">
@@ -1704,7 +1695,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Compagnie Lebon (ENXTPA:LBON)</t>
+          <t>Societe Francaise de Gestion et d'Investissement (ENXTPA:SOFR)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1713,46 +1704,43 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.139</v>
-      </c>
-      <c r="E11">
-        <v>-0.0984</v>
+        <v>-0.131</v>
       </c>
       <c r="G11">
-        <v>0.05201288244766505</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.05201288244766505</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.1352734315055744</v>
+        <v>-0.8082744702320888</v>
       </c>
       <c r="J11">
-        <v>-0.09756083847977791</v>
+        <v>-0.8082744702320888</v>
       </c>
       <c r="K11">
-        <v>6.24</v>
+        <v>-12.1</v>
       </c>
       <c r="L11">
-        <v>0.1004830917874396</v>
+        <v>-1.220988900100908</v>
       </c>
       <c r="M11">
-        <v>3.2376</v>
+        <v>16.2459</v>
       </c>
       <c r="N11">
-        <v>0.02079383429672447</v>
+        <v>0.08408850931677019</v>
       </c>
       <c r="O11">
-        <v>0.5188461538461537</v>
+        <v>-1.342636363636364</v>
       </c>
       <c r="P11">
-        <v>3.2376</v>
+        <v>16.2459</v>
       </c>
       <c r="Q11">
-        <v>0.02079383429672447</v>
+        <v>0.08408850931677019</v>
       </c>
       <c r="R11">
-        <v>0.5188461538461537</v>
+        <v>-1.342636363636364</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1761,73 +1749,67 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>27.5</v>
+        <v>14.3</v>
       </c>
       <c r="V11">
-        <v>0.1766217084136159</v>
+        <v>0.07401656314699794</v>
       </c>
       <c r="W11">
-        <v>0.03248308172826653</v>
+        <v>-0.05745489078822412</v>
       </c>
       <c r="X11">
-        <v>0.07698481622452209</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="Y11">
-        <v>-0.04450173449625557</v>
+        <v>-0.09534193687834927</v>
       </c>
       <c r="Z11">
-        <v>0.223379366121385</v>
+        <v>0.05061287027579163</v>
       </c>
       <c r="AA11">
-        <v>-0.02179307825788361</v>
+        <v>-0.04090909090909091</v>
       </c>
       <c r="AB11">
-        <v>0.04911119046631264</v>
+        <v>0.03788704609012515</v>
       </c>
       <c r="AC11">
-        <v>-0.07090426872419625</v>
+        <v>-0.07879613699921606</v>
       </c>
       <c r="AD11">
-        <v>155.3</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>36.30240048248086</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>191.6024004824809</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>164.1024004824809</v>
+        <v>-14.3</v>
       </c>
       <c r="AH11">
-        <v>0.5516875213540194</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>0.498053560992028</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>0.5131368627468155</v>
+        <v>-0.07993292342090555</v>
       </c>
       <c r="AK11">
-        <v>0.4594101278737889</v>
+        <v>-0.08640483383685801</v>
       </c>
       <c r="AL11">
-        <v>2.36</v>
+        <v>0.034</v>
       </c>
       <c r="AM11">
-        <v>2.36</v>
-      </c>
-      <c r="AN11">
-        <v>21.1869031377899</v>
+        <v>0.034</v>
       </c>
       <c r="AO11">
-        <v>-2.61864406779661</v>
-      </c>
-      <c r="AP11">
-        <v>22.38777632776001</v>
+        <v>-235.5882352941176</v>
       </c>
       <c r="AQ11">
-        <v>-2.61864406779661</v>
+        <v>-235.5882352941176</v>
       </c>
     </row>
     <row r="12">
@@ -1838,7 +1820,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Verneuil Finance Société anonyme (ENXTPA:VRNL)</t>
+          <t>Tikehau Capital (ENXTPA:TKO)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1846,92 +1828,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-2.28748280605227</v>
+      </c>
+      <c r="J12">
+        <v>-2.28748280605227</v>
+      </c>
       <c r="K12">
-        <v>-1.13</v>
+        <v>-179.4</v>
+      </c>
+      <c r="L12">
+        <v>-2.46767537826685</v>
       </c>
       <c r="M12">
-        <v>-0</v>
+        <v>94</v>
       </c>
       <c r="N12">
-        <v>-0</v>
+        <v>0.02234902520209225</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0.5239687848383501</v>
       </c>
       <c r="P12">
-        <v>-0</v>
+        <v>94</v>
       </c>
       <c r="Q12">
-        <v>-0</v>
+        <v>0.02234902520209225</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0.5239687848383501</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
       <c r="U12">
-        <v>0.08500000000000001</v>
+        <v>771.5</v>
       </c>
       <c r="V12">
-        <v>0.0425</v>
+        <v>0.1834284355682358</v>
       </c>
       <c r="W12">
-        <v>-0.4728033472803347</v>
+        <v>-0.05143938525060213</v>
       </c>
       <c r="X12">
-        <v>0.06478928609010905</v>
+        <v>0.04368748416098826</v>
       </c>
       <c r="Y12">
-        <v>-0.5375926333704437</v>
+        <v>-0.0951268694115904</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.02414319872476089</v>
       </c>
       <c r="AA12">
-        <v>-0.0522733460386605</v>
+        <v>-0.05522715196599363</v>
       </c>
       <c r="AB12">
-        <v>0.06946075343673036</v>
+        <v>0.03781597772506696</v>
       </c>
       <c r="AC12">
-        <v>-0.1217340994753909</v>
+        <v>-0.09304312969106059</v>
       </c>
       <c r="AD12">
-        <v>1.33</v>
+        <v>1185.3</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1.33</v>
+        <v>1185.3</v>
       </c>
       <c r="AG12">
-        <v>1.245</v>
+        <v>413.8</v>
       </c>
       <c r="AH12">
-        <v>0.3993993993993994</v>
+        <v>0.2198542095598464</v>
       </c>
       <c r="AI12">
-        <v>0.5215686274509804</v>
+        <v>0.2740134544697968</v>
       </c>
       <c r="AJ12">
-        <v>0.3836671802773498</v>
+        <v>0.08957097709857569</v>
       </c>
       <c r="AK12">
-        <v>0.5050709939148074</v>
+        <v>0.1164256372742108</v>
       </c>
       <c r="AL12">
-        <v>3.03</v>
+        <v>36.3</v>
       </c>
       <c r="AM12">
-        <v>3.03</v>
+        <v>36.3</v>
       </c>
       <c r="AO12">
-        <v>-0.06336633663366337</v>
+        <v>-4.581267217630855</v>
       </c>
       <c r="AQ12">
-        <v>-0.06336633663366337</v>
+        <v>-4.581267217630855</v>
       </c>
     </row>
     <row r="13">
@@ -1942,7 +1945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Idsud (ENXTPA:ALIDS)</t>
+          <t>Verneuil Finance Société anonyme (ENXTPA:VRNL)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1950,122 +1953,98 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.099</v>
-      </c>
-      <c r="E13">
-        <v>-0.241</v>
-      </c>
-      <c r="G13">
-        <v>-2.279661016949153</v>
-      </c>
-      <c r="H13">
-        <v>-2.279661016949153</v>
-      </c>
-      <c r="I13">
-        <v>-2.193056718748724</v>
-      </c>
-      <c r="J13">
-        <v>-1.568242446048616</v>
-      </c>
       <c r="K13">
-        <v>0.758</v>
-      </c>
-      <c r="L13">
-        <v>0.6423728813559323</v>
+        <v>0.036</v>
       </c>
       <c r="M13">
-        <v>0.203</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.003217115689381933</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.2678100263852243</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>0.203</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.003217115689381933</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.2678100263852243</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>3.75</v>
+        <v>0.037</v>
       </c>
       <c r="V13">
-        <v>0.05942947702060222</v>
+        <v>0.01831683168316832</v>
       </c>
       <c r="W13">
-        <v>0.04306818181818182</v>
+        <v>0.02950819672131147</v>
       </c>
       <c r="X13">
-        <v>0.05130070909125986</v>
+        <v>0.05143900417720627</v>
       </c>
       <c r="Y13">
-        <v>-0.008232527273078043</v>
+        <v>-0.0219308074558948</v>
       </c>
       <c r="Z13">
-        <v>0.06149345301103847</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>-0.09643664316600659</v>
+        <v>-0.06206896551724138</v>
       </c>
       <c r="AB13">
-        <v>0.05035804999410151</v>
+        <v>0.04084018117214461</v>
       </c>
       <c r="AC13">
-        <v>-0.1467946931601081</v>
+        <v>-0.102909146689386</v>
       </c>
       <c r="AD13">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="AE13">
-        <v>0.2090346406174711</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>2.489034640617471</v>
+        <v>1.33</v>
       </c>
       <c r="AG13">
-        <v>-1.260965359382529</v>
+        <v>1.293</v>
       </c>
       <c r="AH13">
-        <v>0.03794894457977097</v>
+        <v>0.3970149253731343</v>
       </c>
       <c r="AI13">
-        <v>0.1232864614343613</v>
+        <v>0.5236220472440946</v>
       </c>
       <c r="AJ13">
-        <v>-0.02039109062278755</v>
+        <v>0.3902807123453064</v>
       </c>
       <c r="AK13">
-        <v>-0.0767055600860493</v>
+        <v>0.5165801038753496</v>
       </c>
       <c r="AL13">
-        <v>0.025</v>
+        <v>0.003</v>
       </c>
       <c r="AM13">
-        <v>-3.805</v>
+        <v>0.003</v>
       </c>
       <c r="AN13">
-        <v>-0.9973753280839894</v>
+        <v>-9.17241379310345</v>
       </c>
       <c r="AO13">
-        <v>-104.4</v>
+        <v>-51</v>
       </c>
       <c r="AP13">
-        <v>0.5516033943055683</v>
+        <v>-8.917241379310347</v>
       </c>
       <c r="AQ13">
-        <v>0.685939553219448</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="14">
@@ -2076,7 +2055,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Compagnie des Tramways de Rouen (ENXTPA:MLTRA)</t>
+          <t>Idsud S.A. (ENXTPA:ALIDS)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2084,71 +2063,291 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D14">
+        <v>0.0151</v>
+      </c>
+      <c r="G14">
+        <v>-1.964912280701755</v>
+      </c>
+      <c r="H14">
+        <v>-1.964912280701755</v>
+      </c>
+      <c r="I14">
+        <v>-2.182882919710618</v>
+      </c>
+      <c r="J14">
+        <v>-1.091441459855309</v>
+      </c>
       <c r="K14">
-        <v>-0.008</v>
+        <v>-0.02</v>
+      </c>
+      <c r="L14">
+        <v>-0.01754385964912281</v>
       </c>
       <c r="M14">
-        <v>0.3860999999999999</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.01364310954063604</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>-48.26249999999999</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.3860999999999999</v>
+        <v>-0</v>
       </c>
       <c r="Q14">
-        <v>0.01364310954063604</v>
+        <v>-0</v>
       </c>
       <c r="R14">
-        <v>-48.26249999999999</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
       <c r="U14">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>0.03737916219119227</v>
+      </c>
+      <c r="W14">
+        <v>-0.001129943502824859</v>
       </c>
       <c r="X14">
-        <v>0.05045015326463245</v>
+        <v>0.0386536307611039</v>
+      </c>
+      <c r="Y14">
+        <v>-0.03978357426392876</v>
+      </c>
+      <c r="Z14">
+        <v>0.06956550332685209</v>
+      </c>
+      <c r="AA14">
+        <v>-0.07592667450662879</v>
       </c>
       <c r="AB14">
-        <v>0.05045015326463245</v>
+        <v>0.03787543911945521</v>
+      </c>
+      <c r="AC14">
+        <v>-0.113802113626084</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>0.1574326423505239</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>3.467432642350524</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>-0.01256735764947603</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>0.03590685335078329</v>
+      </c>
+      <c r="AI14">
+        <v>0.1653723038721927</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>-0.0001350059540019848</v>
+      </c>
+      <c r="AK14">
+        <v>-0.0007186508109281171</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="AM14">
-        <v>-0.026</v>
+        <v>-3.097</v>
+      </c>
+      <c r="AN14">
+        <v>-1.527457314259345</v>
+      </c>
+      <c r="AO14">
+        <v>-40</v>
+      </c>
+      <c r="AP14">
+        <v>0.005799426695651145</v>
       </c>
       <c r="AQ14">
-        <v>1.346153846153846</v>
+        <v>0.8136906683887634</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Société des Chemins de Fer et Tramways du Var et du Gard (ENXTPA:MLCVG)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="E15">
+        <v>-0.119</v>
+      </c>
+      <c r="K15">
+        <v>1.24</v>
+      </c>
+      <c r="M15">
+        <v>0.7749</v>
+      </c>
+      <c r="N15">
+        <v>0.00252</v>
+      </c>
+      <c r="O15">
+        <v>0.6249193548387098</v>
+      </c>
+      <c r="P15">
+        <v>0.7749</v>
+      </c>
+      <c r="Q15">
+        <v>0.00252</v>
+      </c>
+      <c r="R15">
+        <v>0.6249193548387098</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0.03788704609012515</v>
+      </c>
+      <c r="AB15">
+        <v>0.03788704609012515</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>-1.34</v>
+      </c>
+      <c r="AQ15">
+        <v>0.06119402985074627</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Courbet Sa (ENXTPA:MLCOU)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="K16">
+        <v>-0.151</v>
+      </c>
+      <c r="M16">
+        <v>-0</v>
+      </c>
+      <c r="N16">
+        <v>-0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>-0</v>
+      </c>
+      <c r="Q16">
+        <v>-0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0.03788704609012515</v>
+      </c>
+      <c r="AB16">
+        <v>0.03788704609012515</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0.016</v>
+      </c>
+      <c r="AM16">
+        <v>-0.019</v>
+      </c>
+      <c r="AN16">
+        <v>-0</v>
+      </c>
+      <c r="AO16">
+        <v>-10.6875</v>
+      </c>
+      <c r="AP16">
+        <v>-0</v>
+      </c>
+      <c r="AQ16">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
